--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.294649666666667</v>
+        <v>5.830942</v>
       </c>
       <c r="H2">
-        <v>6.883949</v>
+        <v>17.492826</v>
       </c>
       <c r="I2">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291963</v>
       </c>
       <c r="J2">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291964</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9372593333333333</v>
+        <v>4.513154666666666</v>
       </c>
       <c r="N2">
-        <v>2.811778</v>
+        <v>13.539464</v>
       </c>
       <c r="O2">
-        <v>0.01825643784866941</v>
+        <v>0.09219470767809397</v>
       </c>
       <c r="P2">
-        <v>0.01825643784866941</v>
+        <v>0.09219470767809398</v>
       </c>
       <c r="Q2">
-        <v>2.150681816813556</v>
+        <v>26.31594309836266</v>
       </c>
       <c r="R2">
-        <v>19.356136351322</v>
+        <v>236.843487885264</v>
       </c>
       <c r="S2">
-        <v>0.0001318906264110665</v>
+        <v>0.001698700720100555</v>
       </c>
       <c r="T2">
-        <v>0.0001318906264110665</v>
+        <v>0.001698700720100555</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.294649666666667</v>
+        <v>5.830942</v>
       </c>
       <c r="H3">
-        <v>6.883949</v>
+        <v>17.492826</v>
       </c>
       <c r="I3">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291963</v>
       </c>
       <c r="J3">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291964</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>108.110892</v>
       </c>
       <c r="O3">
-        <v>0.7019472307423313</v>
+        <v>0.7361629740112304</v>
       </c>
       <c r="P3">
-        <v>0.7019472307423316</v>
+        <v>0.7361629740112305</v>
       </c>
       <c r="Q3">
-        <v>82.69220743027869</v>
+        <v>210.129446940088</v>
       </c>
       <c r="R3">
-        <v>744.2298668725081</v>
+        <v>1891.165022460792</v>
       </c>
       <c r="S3">
-        <v>0.005071102081223752</v>
+        <v>0.01356390844505465</v>
       </c>
       <c r="T3">
-        <v>0.005071102081223753</v>
+        <v>0.01356390844505465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.294649666666667</v>
+        <v>5.830942</v>
       </c>
       <c r="H4">
-        <v>6.883949</v>
+        <v>17.492826</v>
       </c>
       <c r="I4">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291963</v>
       </c>
       <c r="J4">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291964</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3625906666666667</v>
+        <v>0.160901</v>
       </c>
       <c r="N4">
-        <v>1.087772</v>
+        <v>0.482703</v>
       </c>
       <c r="O4">
-        <v>0.007062734651001189</v>
+        <v>0.003286885062831069</v>
       </c>
       <c r="P4">
-        <v>0.00706273465100119</v>
+        <v>0.00328688506283107</v>
       </c>
       <c r="Q4">
-        <v>0.8320185524031112</v>
+        <v>0.938204398742</v>
       </c>
       <c r="R4">
-        <v>7.488166971628</v>
+        <v>8.443839588678001</v>
       </c>
       <c r="S4">
-        <v>5.102356248338902E-05</v>
+        <v>6.056132899313431E-05</v>
       </c>
       <c r="T4">
-        <v>5.102356248338903E-05</v>
+        <v>6.056132899313433E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.294649666666667</v>
+        <v>5.830942</v>
       </c>
       <c r="H5">
-        <v>6.883949</v>
+        <v>17.492826</v>
       </c>
       <c r="I5">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291963</v>
       </c>
       <c r="J5">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291964</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.04550333333333</v>
+        <v>7.787629333333332</v>
       </c>
       <c r="N5">
-        <v>39.13651</v>
+        <v>23.362888</v>
       </c>
       <c r="O5">
-        <v>0.2541072810260372</v>
+        <v>0.1590856646670835</v>
       </c>
       <c r="P5">
-        <v>0.2541072810260372</v>
+        <v>0.1590856646670836</v>
       </c>
       <c r="Q5">
-        <v>29.93485987533223</v>
+        <v>45.40921496016533</v>
       </c>
       <c r="R5">
-        <v>269.41373887799</v>
+        <v>408.682934641488</v>
       </c>
       <c r="S5">
-        <v>0.001835756172586516</v>
+        <v>0.002931176202339222</v>
       </c>
       <c r="T5">
-        <v>0.001835756172586516</v>
+        <v>0.002931176202339223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.294649666666667</v>
+        <v>5.830942</v>
       </c>
       <c r="H6">
-        <v>6.883949</v>
+        <v>17.492826</v>
       </c>
       <c r="I6">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291963</v>
       </c>
       <c r="J6">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291964</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.007966666666666667</v>
+        <v>0.05993</v>
       </c>
       <c r="N6">
-        <v>0.0239</v>
+        <v>0.17979</v>
       </c>
       <c r="O6">
-        <v>0.0001551789880222403</v>
+        <v>0.001224249829494323</v>
       </c>
       <c r="P6">
-        <v>0.0001551789880222404</v>
+        <v>0.001224249829494323</v>
       </c>
       <c r="Q6">
-        <v>0.01828070901111111</v>
+        <v>0.34944835406</v>
       </c>
       <c r="R6">
-        <v>0.1645263811</v>
+        <v>3.14503518654</v>
       </c>
       <c r="S6">
-        <v>1.121065024061106E-06</v>
+        <v>2.255697880410028E-05</v>
       </c>
       <c r="T6">
-        <v>1.121065024061107E-06</v>
+        <v>2.255697880410029E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.294649666666667</v>
+        <v>5.830942</v>
       </c>
       <c r="H7">
-        <v>6.883949</v>
+        <v>17.492826</v>
       </c>
       <c r="I7">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291963</v>
       </c>
       <c r="J7">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291964</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.9482816666666668</v>
+        <v>0.3938476666666667</v>
       </c>
       <c r="N7">
-        <v>2.844845</v>
+        <v>1.181543</v>
       </c>
       <c r="O7">
-        <v>0.01847113674393851</v>
+        <v>0.008045518751266535</v>
       </c>
       <c r="P7">
-        <v>0.01847113674393851</v>
+        <v>0.008045518751266535</v>
       </c>
       <c r="Q7">
-        <v>2.175974210322778</v>
+        <v>2.296502901168667</v>
       </c>
       <c r="R7">
-        <v>19.583767892905</v>
+        <v>20.668526110518</v>
       </c>
       <c r="S7">
-        <v>0.0001334416831956116</v>
+        <v>0.0001482398376279719</v>
       </c>
       <c r="T7">
-        <v>0.0001334416831956116</v>
+        <v>0.0001482398376279719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>287.769348</v>
       </c>
       <c r="H8">
-        <v>863.308044</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I8">
-        <v>0.9059954806285325</v>
+        <v>0.9093198895683258</v>
       </c>
       <c r="J8">
-        <v>0.9059954806285326</v>
+        <v>0.9093198895683259</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9372593333333333</v>
+        <v>4.513154666666666</v>
       </c>
       <c r="N8">
-        <v>2.811778</v>
+        <v>13.539464</v>
       </c>
       <c r="O8">
-        <v>0.01825643784866941</v>
+        <v>0.09219470767809397</v>
       </c>
       <c r="P8">
-        <v>0.01825643784866941</v>
+        <v>0.09219470767809398</v>
       </c>
       <c r="Q8">
-        <v>269.714507260248</v>
+        <v>1298.747575849824</v>
       </c>
       <c r="R8">
-        <v>2427.430565342232</v>
+        <v>11688.72818264842</v>
       </c>
       <c r="S8">
-        <v>0.01654025018327017</v>
+        <v>0.08383448140462849</v>
       </c>
       <c r="T8">
-        <v>0.01654025018327018</v>
+        <v>0.08383448140462851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>287.769348</v>
       </c>
       <c r="H9">
-        <v>863.308044</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I9">
-        <v>0.9059954806285325</v>
+        <v>0.9093198895683258</v>
       </c>
       <c r="J9">
-        <v>0.9059954806285326</v>
+        <v>0.9093198895683259</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>108.110892</v>
       </c>
       <c r="O9">
-        <v>0.7019472307423313</v>
+        <v>0.7361629740112304</v>
       </c>
       <c r="P9">
-        <v>0.7019472307423316</v>
+        <v>0.7361629740112305</v>
       </c>
       <c r="Q9">
         <v>10370.33363417947</v>
       </c>
       <c r="R9">
-        <v>93333.00270761525</v>
+        <v>93333.00270761526</v>
       </c>
       <c r="S9">
-        <v>0.635961018692266</v>
+        <v>0.6694076342321823</v>
       </c>
       <c r="T9">
-        <v>0.6359610186922662</v>
+        <v>0.6694076342321825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>287.769348</v>
       </c>
       <c r="H10">
-        <v>863.308044</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I10">
-        <v>0.9059954806285325</v>
+        <v>0.9093198895683258</v>
       </c>
       <c r="J10">
-        <v>0.9059954806285326</v>
+        <v>0.9093198895683259</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3625906666666667</v>
+        <v>0.160901</v>
       </c>
       <c r="N10">
-        <v>1.087772</v>
+        <v>0.482703</v>
       </c>
       <c r="O10">
-        <v>0.007062734651001189</v>
+        <v>0.003286885062831069</v>
       </c>
       <c r="P10">
-        <v>0.00706273465100119</v>
+        <v>0.00328688506283107</v>
       </c>
       <c r="Q10">
-        <v>104.342479737552</v>
+        <v>46.302375862548</v>
       </c>
       <c r="R10">
-        <v>939.082317637968</v>
+        <v>416.721382762932</v>
       </c>
       <c r="S10">
-        <v>0.006398805674685613</v>
+        <v>0.002988829962357327</v>
       </c>
       <c r="T10">
-        <v>0.006398805674685614</v>
+        <v>0.002988829962357328</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>287.769348</v>
       </c>
       <c r="H11">
-        <v>863.308044</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I11">
-        <v>0.9059954806285325</v>
+        <v>0.9093198895683258</v>
       </c>
       <c r="J11">
-        <v>0.9059954806285326</v>
+        <v>0.9093198895683259</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.04550333333333</v>
+        <v>7.787629333333332</v>
       </c>
       <c r="N11">
-        <v>39.13651</v>
+        <v>23.362888</v>
       </c>
       <c r="O11">
-        <v>0.2541072810260372</v>
+        <v>0.1590856646670835</v>
       </c>
       <c r="P11">
-        <v>0.2541072810260372</v>
+        <v>0.1590856646670836</v>
       </c>
       <c r="Q11">
-        <v>3754.09598856516</v>
+        <v>2241.041015719008</v>
       </c>
       <c r="R11">
-        <v>33786.86389708644</v>
+        <v>20169.36914147107</v>
       </c>
       <c r="S11">
-        <v>0.2302200482043942</v>
+        <v>0.1446597590269761</v>
       </c>
       <c r="T11">
-        <v>0.2302200482043942</v>
+        <v>0.1446597590269761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>287.769348</v>
       </c>
       <c r="H12">
-        <v>863.308044</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I12">
-        <v>0.9059954806285325</v>
+        <v>0.9093198895683258</v>
       </c>
       <c r="J12">
-        <v>0.9059954806285326</v>
+        <v>0.9093198895683259</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.007966666666666667</v>
+        <v>0.05993</v>
       </c>
       <c r="N12">
-        <v>0.0239</v>
+        <v>0.17979</v>
       </c>
       <c r="O12">
-        <v>0.0001551789880222403</v>
+        <v>0.001224249829494323</v>
       </c>
       <c r="P12">
-        <v>0.0001551789880222404</v>
+        <v>0.001224249829494323</v>
       </c>
       <c r="Q12">
-        <v>2.2925624724</v>
+        <v>17.24601702564</v>
       </c>
       <c r="R12">
-        <v>20.6330622516</v>
+        <v>155.21415323076</v>
       </c>
       <c r="S12">
-        <v>0.0001405914618366589</v>
+        <v>0.001113234719759819</v>
       </c>
       <c r="T12">
-        <v>0.000140591461836659</v>
+        <v>0.001113234719759819</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,43 +1228,43 @@
         <v>287.769348</v>
       </c>
       <c r="H13">
-        <v>863.308044</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I13">
-        <v>0.9059954806285325</v>
+        <v>0.9093198895683258</v>
       </c>
       <c r="J13">
-        <v>0.9059954806285326</v>
+        <v>0.9093198895683259</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.9482816666666668</v>
+        <v>0.3938476666666667</v>
       </c>
       <c r="N13">
-        <v>2.844845</v>
+        <v>1.181543</v>
       </c>
       <c r="O13">
-        <v>0.01847113674393851</v>
+        <v>0.008045518751266535</v>
       </c>
       <c r="P13">
-        <v>0.01847113674393851</v>
+        <v>0.008045518751266535</v>
       </c>
       <c r="Q13">
-        <v>272.88639693702</v>
+        <v>113.337286247988</v>
       </c>
       <c r="R13">
-        <v>2455.97757243318</v>
+        <v>1020.035576231892</v>
       </c>
       <c r="S13">
-        <v>0.01673476641207991</v>
+        <v>0.007315950222421579</v>
       </c>
       <c r="T13">
-        <v>0.01673476641207992</v>
+        <v>0.00731595022242158</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.780470666666667</v>
+        <v>0.409391</v>
       </c>
       <c r="H14">
-        <v>5.341412</v>
+        <v>1.228173</v>
       </c>
       <c r="I14">
-        <v>0.005605525357730841</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="J14">
-        <v>0.00560552535773084</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9372593333333333</v>
+        <v>4.513154666666666</v>
       </c>
       <c r="N14">
-        <v>2.811778</v>
+        <v>13.539464</v>
       </c>
       <c r="O14">
-        <v>0.01825643784866941</v>
+        <v>0.09219470767809397</v>
       </c>
       <c r="P14">
-        <v>0.01825643784866941</v>
+        <v>0.09219470767809398</v>
       </c>
       <c r="Q14">
-        <v>1.668762750059556</v>
+        <v>1.847644902141333</v>
       </c>
       <c r="R14">
-        <v>15.018864750536</v>
+        <v>16.628804119272</v>
       </c>
       <c r="S14">
-        <v>0.0001023369253025535</v>
+        <v>0.0001192659413354971</v>
       </c>
       <c r="T14">
-        <v>0.0001023369253025535</v>
+        <v>0.0001192659413354971</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.780470666666667</v>
+        <v>0.409391</v>
       </c>
       <c r="H15">
-        <v>5.341412</v>
+        <v>1.228173</v>
       </c>
       <c r="I15">
-        <v>0.005605525357730841</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="J15">
-        <v>0.00560552535773084</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>108.110892</v>
       </c>
       <c r="O15">
-        <v>0.7019472307423313</v>
+        <v>0.7361629740112304</v>
       </c>
       <c r="P15">
-        <v>0.7019472307423316</v>
+        <v>0.7361629740112305</v>
       </c>
       <c r="Q15">
-        <v>64.16275731772268</v>
+        <v>14.753208728924</v>
       </c>
       <c r="R15">
-        <v>577.464815859504</v>
+        <v>132.778878560316</v>
       </c>
       <c r="S15">
-        <v>0.00393478300171508</v>
+        <v>0.0009523233196676226</v>
       </c>
       <c r="T15">
-        <v>0.00393478300171508</v>
+        <v>0.0009523233196676228</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.780470666666667</v>
+        <v>0.409391</v>
       </c>
       <c r="H16">
-        <v>5.341412</v>
+        <v>1.228173</v>
       </c>
       <c r="I16">
-        <v>0.005605525357730841</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="J16">
-        <v>0.00560552535773084</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3625906666666667</v>
+        <v>0.160901</v>
       </c>
       <c r="N16">
-        <v>1.087772</v>
+        <v>0.482703</v>
       </c>
       <c r="O16">
-        <v>0.007062734651001189</v>
+        <v>0.003286885062831069</v>
       </c>
       <c r="P16">
-        <v>0.00706273465100119</v>
+        <v>0.00328688506283107</v>
       </c>
       <c r="Q16">
-        <v>0.6455820460071111</v>
+        <v>0.065871421291</v>
       </c>
       <c r="R16">
-        <v>5.810238414064</v>
+        <v>0.592842791619</v>
       </c>
       <c r="S16">
-        <v>3.959033818111144E-05</v>
+        <v>4.252016747521799E-06</v>
       </c>
       <c r="T16">
-        <v>3.959033818111144E-05</v>
+        <v>4.252016747521799E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.780470666666667</v>
+        <v>0.409391</v>
       </c>
       <c r="H17">
-        <v>5.341412</v>
+        <v>1.228173</v>
       </c>
       <c r="I17">
-        <v>0.005605525357730841</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="J17">
-        <v>0.00560552535773084</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.04550333333333</v>
+        <v>7.787629333333332</v>
       </c>
       <c r="N17">
-        <v>39.13651</v>
+        <v>23.362888</v>
       </c>
       <c r="O17">
-        <v>0.2541072810260372</v>
+        <v>0.1590856646670835</v>
       </c>
       <c r="P17">
-        <v>0.2541072810260372</v>
+        <v>0.1590856646670836</v>
       </c>
       <c r="Q17">
-        <v>23.22713601690223</v>
+        <v>3.188185360402666</v>
       </c>
       <c r="R17">
-        <v>209.04422415212</v>
+        <v>28.693668243624</v>
       </c>
       <c r="S17">
-        <v>0.001424404807375488</v>
+        <v>0.0002057981637704262</v>
       </c>
       <c r="T17">
-        <v>0.001424404807375489</v>
+        <v>0.0002057981637704263</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.780470666666667</v>
+        <v>0.409391</v>
       </c>
       <c r="H18">
-        <v>5.341412</v>
+        <v>1.228173</v>
       </c>
       <c r="I18">
-        <v>0.005605525357730841</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="J18">
-        <v>0.00560552535773084</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.007966666666666667</v>
+        <v>0.05993</v>
       </c>
       <c r="N18">
-        <v>0.0239</v>
+        <v>0.17979</v>
       </c>
       <c r="O18">
-        <v>0.0001551789880222403</v>
+        <v>0.001224249829494323</v>
       </c>
       <c r="P18">
-        <v>0.0001551789880222404</v>
+        <v>0.001224249829494323</v>
       </c>
       <c r="Q18">
-        <v>0.01418441631111111</v>
+        <v>0.02453480263</v>
       </c>
       <c r="R18">
-        <v>0.1276597468</v>
+        <v>0.22081322367</v>
       </c>
       <c r="S18">
-        <v>8.698597523456786E-07</v>
+        <v>1.583727656627252E-06</v>
       </c>
       <c r="T18">
-        <v>8.698597523456786E-07</v>
+        <v>1.583727656627252E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.780470666666667</v>
+        <v>0.409391</v>
       </c>
       <c r="H19">
-        <v>5.341412</v>
+        <v>1.228173</v>
       </c>
       <c r="I19">
-        <v>0.005605525357730841</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="J19">
-        <v>0.00560552535773084</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.9482816666666668</v>
+        <v>0.3938476666666667</v>
       </c>
       <c r="N19">
-        <v>2.844845</v>
+        <v>1.181543</v>
       </c>
       <c r="O19">
-        <v>0.01847113674393851</v>
+        <v>0.008045518751266535</v>
       </c>
       <c r="P19">
-        <v>0.01847113674393851</v>
+        <v>0.008045518751266535</v>
       </c>
       <c r="Q19">
-        <v>1.688387691237778</v>
+        <v>0.1612376901043333</v>
       </c>
       <c r="R19">
-        <v>15.19548922114</v>
+        <v>1.451139210939</v>
       </c>
       <c r="S19">
-        <v>0.0001035404254042612</v>
+        <v>1.040793329214268E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001035404254042612</v>
+        <v>1.040793329214268E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.47212533333333</v>
+        <v>21.74294766666667</v>
       </c>
       <c r="H20">
-        <v>70.416376</v>
+        <v>65.228843</v>
       </c>
       <c r="I20">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="J20">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9372593333333333</v>
+        <v>4.513154666666666</v>
       </c>
       <c r="N20">
-        <v>2.811778</v>
+        <v>13.539464</v>
       </c>
       <c r="O20">
-        <v>0.01825643784866941</v>
+        <v>0.09219470767809397</v>
       </c>
       <c r="P20">
-        <v>0.01825643784866941</v>
+        <v>0.09219470767809398</v>
       </c>
       <c r="Q20">
-        <v>21.99946854183645</v>
+        <v>98.12928572890576</v>
       </c>
       <c r="R20">
-        <v>197.995216876528</v>
+        <v>883.1635715601519</v>
       </c>
       <c r="S20">
-        <v>0.001349118062937013</v>
+        <v>0.006334269978757351</v>
       </c>
       <c r="T20">
-        <v>0.001349118062937013</v>
+        <v>0.006334269978757353</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.47212533333333</v>
+        <v>21.74294766666667</v>
       </c>
       <c r="H21">
-        <v>70.416376</v>
+        <v>65.228843</v>
       </c>
       <c r="I21">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="J21">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>108.110892</v>
       </c>
       <c r="O21">
-        <v>0.7019472307423313</v>
+        <v>0.7361629740112304</v>
       </c>
       <c r="P21">
-        <v>0.7019472307423316</v>
+        <v>0.7361629740112305</v>
       </c>
       <c r="Q21">
-        <v>845.8641356408215</v>
+        <v>783.5498223175507</v>
       </c>
       <c r="R21">
-        <v>7612.777220767392</v>
+        <v>7051.948400857957</v>
       </c>
       <c r="S21">
-        <v>0.05187264328742619</v>
+        <v>0.05057833733833765</v>
       </c>
       <c r="T21">
-        <v>0.0518726432874262</v>
+        <v>0.05057833733833766</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.47212533333333</v>
+        <v>21.74294766666667</v>
       </c>
       <c r="H22">
-        <v>70.416376</v>
+        <v>65.228843</v>
       </c>
       <c r="I22">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="J22">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3625906666666667</v>
+        <v>0.160901</v>
       </c>
       <c r="N22">
-        <v>1.087772</v>
+        <v>0.482703</v>
       </c>
       <c r="O22">
-        <v>0.007062734651001189</v>
+        <v>0.003286885062831069</v>
       </c>
       <c r="P22">
-        <v>0.00706273465100119</v>
+        <v>0.00328688506283107</v>
       </c>
       <c r="Q22">
-        <v>8.510773572696889</v>
+        <v>3.498462022514333</v>
       </c>
       <c r="R22">
-        <v>76.59696215427199</v>
+        <v>31.486158202629</v>
       </c>
       <c r="S22">
-        <v>0.0005219234425893938</v>
+        <v>0.0002258266000453275</v>
       </c>
       <c r="T22">
-        <v>0.0005219234425893939</v>
+        <v>0.0002258266000453275</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.47212533333333</v>
+        <v>21.74294766666667</v>
       </c>
       <c r="H23">
-        <v>70.416376</v>
+        <v>65.228843</v>
       </c>
       <c r="I23">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="J23">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.04550333333333</v>
+        <v>7.787629333333332</v>
       </c>
       <c r="N23">
-        <v>39.13651</v>
+        <v>23.362888</v>
       </c>
       <c r="O23">
-        <v>0.2541072810260372</v>
+        <v>0.1590856646670835</v>
       </c>
       <c r="P23">
-        <v>0.2541072810260372</v>
+        <v>0.1590856646670836</v>
       </c>
       <c r="Q23">
-        <v>306.2056892764178</v>
+        <v>169.3260170420649</v>
       </c>
       <c r="R23">
-        <v>2755.85120348776</v>
+        <v>1523.934153378584</v>
       </c>
       <c r="S23">
-        <v>0.0187780730062313</v>
+        <v>0.01093003682239344</v>
       </c>
       <c r="T23">
-        <v>0.01877807300623131</v>
+        <v>0.01093003682239344</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.47212533333333</v>
+        <v>21.74294766666667</v>
       </c>
       <c r="H24">
-        <v>70.416376</v>
+        <v>65.228843</v>
       </c>
       <c r="I24">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="J24">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.007966666666666667</v>
+        <v>0.05993</v>
       </c>
       <c r="N24">
-        <v>0.0239</v>
+        <v>0.17979</v>
       </c>
       <c r="O24">
-        <v>0.0001551789880222403</v>
+        <v>0.001224249829494323</v>
       </c>
       <c r="P24">
-        <v>0.0001551789880222404</v>
+        <v>0.001224249829494323</v>
       </c>
       <c r="Q24">
-        <v>0.1869945984888889</v>
+        <v>1.303054853663333</v>
       </c>
       <c r="R24">
-        <v>1.6829513864</v>
+        <v>11.72749368297</v>
       </c>
       <c r="S24">
-        <v>1.14674493164804E-05</v>
+        <v>8.411251726662034E-05</v>
       </c>
       <c r="T24">
-        <v>1.14674493164804E-05</v>
+        <v>8.411251726662034E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.47212533333333</v>
+        <v>21.74294766666667</v>
       </c>
       <c r="H25">
-        <v>70.416376</v>
+        <v>65.228843</v>
       </c>
       <c r="I25">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="J25">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.9482816666666668</v>
+        <v>0.3938476666666667</v>
       </c>
       <c r="N25">
-        <v>2.844845</v>
+        <v>1.181543</v>
       </c>
       <c r="O25">
-        <v>0.01847113674393851</v>
+        <v>0.008045518751266535</v>
       </c>
       <c r="P25">
-        <v>0.01847113674393851</v>
+        <v>0.008045518751266535</v>
       </c>
       <c r="Q25">
-        <v>22.25818613130223</v>
+        <v>8.56340920497211</v>
       </c>
       <c r="R25">
-        <v>200.32367518172</v>
+        <v>77.070682844749</v>
       </c>
       <c r="S25">
-        <v>0.001364983926809317</v>
+        <v>0.0005527702096265331</v>
       </c>
       <c r="T25">
-        <v>0.001364983926809317</v>
+        <v>0.0005527702096265331</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.212347</v>
+        <v>0.215244</v>
       </c>
       <c r="H26">
-        <v>0.637041</v>
+        <v>0.645732</v>
       </c>
       <c r="I26">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279172</v>
       </c>
       <c r="J26">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279173</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.9372593333333333</v>
+        <v>4.513154666666666</v>
       </c>
       <c r="N26">
-        <v>2.811778</v>
+        <v>13.539464</v>
       </c>
       <c r="O26">
-        <v>0.01825643784866941</v>
+        <v>0.09219470767809397</v>
       </c>
       <c r="P26">
-        <v>0.01825643784866941</v>
+        <v>0.09219470767809398</v>
       </c>
       <c r="Q26">
-        <v>0.1990242076553333</v>
+        <v>0.9714294630719998</v>
       </c>
       <c r="R26">
-        <v>1.791217868898</v>
+        <v>8.742865167647999</v>
       </c>
       <c r="S26">
-        <v>1.220516545656166E-05</v>
+        <v>6.27060152197233E-05</v>
       </c>
       <c r="T26">
-        <v>1.220516545656166E-05</v>
+        <v>6.270601521972331E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.212347</v>
+        <v>0.215244</v>
       </c>
       <c r="H27">
-        <v>0.637041</v>
+        <v>0.645732</v>
       </c>
       <c r="I27">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279172</v>
       </c>
       <c r="J27">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279173</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>108.110892</v>
       </c>
       <c r="O27">
-        <v>0.7019472307423313</v>
+        <v>0.7361629740112304</v>
       </c>
       <c r="P27">
-        <v>0.7019472307423316</v>
+        <v>0.7361629740112305</v>
       </c>
       <c r="Q27">
-        <v>7.652341194508001</v>
+        <v>7.756740279216</v>
       </c>
       <c r="R27">
-        <v>68.871070750572</v>
+        <v>69.81066251294401</v>
       </c>
       <c r="S27">
-        <v>0.0004692800514537309</v>
+        <v>0.0005006995283690597</v>
       </c>
       <c r="T27">
-        <v>0.0004692800514537311</v>
+        <v>0.0005006995283690599</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.212347</v>
+        <v>0.215244</v>
       </c>
       <c r="H28">
-        <v>0.637041</v>
+        <v>0.645732</v>
       </c>
       <c r="I28">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279172</v>
       </c>
       <c r="J28">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279173</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.3625906666666667</v>
+        <v>0.160901</v>
       </c>
       <c r="N28">
-        <v>1.087772</v>
+        <v>0.482703</v>
       </c>
       <c r="O28">
-        <v>0.007062734651001189</v>
+        <v>0.003286885062831069</v>
       </c>
       <c r="P28">
-        <v>0.00706273465100119</v>
+        <v>0.00328688506283107</v>
       </c>
       <c r="Q28">
-        <v>0.07699504029466667</v>
+        <v>0.034632974844</v>
       </c>
       <c r="R28">
-        <v>0.692955362652</v>
+        <v>0.311696773596</v>
       </c>
       <c r="S28">
-        <v>4.721723137109328E-06</v>
+        <v>2.23556720300051E-06</v>
       </c>
       <c r="T28">
-        <v>4.721723137109329E-06</v>
+        <v>2.235567203000511E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.212347</v>
+        <v>0.215244</v>
       </c>
       <c r="H29">
-        <v>0.637041</v>
+        <v>0.645732</v>
       </c>
       <c r="I29">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279172</v>
       </c>
       <c r="J29">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279173</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>13.04550333333333</v>
+        <v>7.787629333333332</v>
       </c>
       <c r="N29">
-        <v>39.13651</v>
+        <v>23.362888</v>
       </c>
       <c r="O29">
-        <v>0.2541072810260372</v>
+        <v>0.1590856646670835</v>
       </c>
       <c r="P29">
-        <v>0.2541072810260372</v>
+        <v>0.1590856646670836</v>
       </c>
       <c r="Q29">
-        <v>2.770173496323333</v>
+        <v>1.676240488224</v>
       </c>
       <c r="R29">
-        <v>24.93156146691</v>
+        <v>15.086164394016</v>
       </c>
       <c r="S29">
-        <v>0.0001698809720903926</v>
+        <v>0.0001082017434740911</v>
       </c>
       <c r="T29">
-        <v>0.0001698809720903927</v>
+        <v>0.0001082017434740911</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.212347</v>
+        <v>0.215244</v>
       </c>
       <c r="H30">
-        <v>0.637041</v>
+        <v>0.645732</v>
       </c>
       <c r="I30">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279172</v>
       </c>
       <c r="J30">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279173</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2297,28 +2297,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.007966666666666667</v>
+        <v>0.05993</v>
       </c>
       <c r="N30">
-        <v>0.0239</v>
+        <v>0.17979</v>
       </c>
       <c r="O30">
-        <v>0.0001551789880222403</v>
+        <v>0.001224249829494323</v>
       </c>
       <c r="P30">
-        <v>0.0001551789880222404</v>
+        <v>0.001224249829494323</v>
       </c>
       <c r="Q30">
-        <v>0.001691697766666667</v>
+        <v>0.01289957292</v>
       </c>
       <c r="R30">
-        <v>0.0152252799</v>
+        <v>0.11609615628</v>
       </c>
       <c r="S30">
-        <v>1.037434158784313E-07</v>
+        <v>8.326706637983642E-07</v>
       </c>
       <c r="T30">
-        <v>1.037434158784313E-07</v>
+        <v>8.326706637983643E-07</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.212347</v>
+        <v>0.215244</v>
       </c>
       <c r="H31">
-        <v>0.637041</v>
+        <v>0.645732</v>
       </c>
       <c r="I31">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279172</v>
       </c>
       <c r="J31">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279173</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.9482816666666668</v>
+        <v>0.3938476666666667</v>
       </c>
       <c r="N31">
-        <v>2.844845</v>
+        <v>1.181543</v>
       </c>
       <c r="O31">
-        <v>0.01847113674393851</v>
+        <v>0.008045518751266535</v>
       </c>
       <c r="P31">
-        <v>0.01847113674393851</v>
+        <v>0.008045518751266535</v>
       </c>
       <c r="Q31">
-        <v>0.2013647670716667</v>
+        <v>0.08477334716399999</v>
       </c>
       <c r="R31">
-        <v>1.812282903645</v>
+        <v>0.7629601244759999</v>
       </c>
       <c r="S31">
-        <v>1.234870033241321E-05</v>
+        <v>5.472140798244121E-06</v>
       </c>
       <c r="T31">
-        <v>1.234870033241322E-05</v>
+        <v>5.472140798244122E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.098855666666667</v>
+        <v>0.498699</v>
       </c>
       <c r="H32">
-        <v>6.296567</v>
+        <v>1.496097</v>
       </c>
       <c r="I32">
-        <v>0.006607909291616375</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="J32">
-        <v>0.006607909291616374</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.9372593333333333</v>
+        <v>4.513154666666666</v>
       </c>
       <c r="N32">
-        <v>2.811778</v>
+        <v>13.539464</v>
       </c>
       <c r="O32">
-        <v>0.01825643784866941</v>
+        <v>0.09219470767809397</v>
       </c>
       <c r="P32">
-        <v>0.01825643784866941</v>
+        <v>0.09219470767809398</v>
       </c>
       <c r="Q32">
-        <v>1.967172062902889</v>
+        <v>2.250705719112</v>
       </c>
       <c r="R32">
-        <v>17.704548566126</v>
+        <v>20.256351472008</v>
       </c>
       <c r="S32">
-        <v>0.0001206368852920395</v>
+        <v>0.0001452836180523536</v>
       </c>
       <c r="T32">
-        <v>0.0001206368852920395</v>
+        <v>0.0001452836180523536</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.098855666666667</v>
+        <v>0.498699</v>
       </c>
       <c r="H33">
-        <v>6.296567</v>
+        <v>1.496097</v>
       </c>
       <c r="I33">
-        <v>0.006607909291616375</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="J33">
-        <v>0.006607909291616374</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>108.110892</v>
       </c>
       <c r="O33">
-        <v>0.7019472307423313</v>
+        <v>0.7361629740112304</v>
       </c>
       <c r="P33">
-        <v>0.7019472307423316</v>
+        <v>0.7361629740112305</v>
       </c>
       <c r="Q33">
-        <v>75.63638610086268</v>
+        <v>17.971597909836</v>
       </c>
       <c r="R33">
-        <v>680.727474907764</v>
+        <v>161.744381188524</v>
       </c>
       <c r="S33">
-        <v>0.004638403628246635</v>
+        <v>0.001160071147619082</v>
       </c>
       <c r="T33">
-        <v>0.004638403628246635</v>
+        <v>0.001160071147619083</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.098855666666667</v>
+        <v>0.498699</v>
       </c>
       <c r="H34">
-        <v>6.296567</v>
+        <v>1.496097</v>
       </c>
       <c r="I34">
-        <v>0.006607909291616375</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="J34">
-        <v>0.006607909291616374</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.3625906666666667</v>
+        <v>0.160901</v>
       </c>
       <c r="N34">
-        <v>1.087772</v>
+        <v>0.482703</v>
       </c>
       <c r="O34">
-        <v>0.007062734651001189</v>
+        <v>0.003286885062831069</v>
       </c>
       <c r="P34">
-        <v>0.00706273465100119</v>
+        <v>0.00328688506283107</v>
       </c>
       <c r="Q34">
-        <v>0.7610254754137777</v>
+        <v>0.08024116779899999</v>
       </c>
       <c r="R34">
-        <v>6.849229278724</v>
+        <v>0.722170510191</v>
       </c>
       <c r="S34">
-        <v>4.666990992457169E-05</v>
+        <v>5.179587484757538E-06</v>
       </c>
       <c r="T34">
-        <v>4.666990992457169E-05</v>
+        <v>5.17958748475754E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.098855666666667</v>
+        <v>0.498699</v>
       </c>
       <c r="H35">
-        <v>6.296567</v>
+        <v>1.496097</v>
       </c>
       <c r="I35">
-        <v>0.006607909291616375</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="J35">
-        <v>0.006607909291616374</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>13.04550333333333</v>
+        <v>7.787629333333332</v>
       </c>
       <c r="N35">
-        <v>39.13651</v>
+        <v>23.362888</v>
       </c>
       <c r="O35">
-        <v>0.2541072810260372</v>
+        <v>0.1590856646670835</v>
       </c>
       <c r="P35">
-        <v>0.2541072810260372</v>
+        <v>0.1590856646670836</v>
       </c>
       <c r="Q35">
-        <v>27.38062859568556</v>
+        <v>3.883682960904</v>
       </c>
       <c r="R35">
-        <v>246.42565736117</v>
+        <v>34.953146648136</v>
       </c>
       <c r="S35">
-        <v>0.001679117863359325</v>
+        <v>0.0002506927081302417</v>
       </c>
       <c r="T35">
-        <v>0.001679117863359325</v>
+        <v>0.0002506927081302418</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.098855666666667</v>
+        <v>0.498699</v>
       </c>
       <c r="H36">
-        <v>6.296567</v>
+        <v>1.496097</v>
       </c>
       <c r="I36">
-        <v>0.006607909291616375</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="J36">
-        <v>0.006607909291616374</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -2669,28 +2669,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>0.007966666666666667</v>
+        <v>0.05993</v>
       </c>
       <c r="N36">
-        <v>0.0239</v>
+        <v>0.17979</v>
       </c>
       <c r="O36">
-        <v>0.0001551789880222403</v>
+        <v>0.001224249829494323</v>
       </c>
       <c r="P36">
-        <v>0.0001551789880222404</v>
+        <v>0.001224249829494323</v>
       </c>
       <c r="Q36">
-        <v>0.01672088347777778</v>
+        <v>0.02988703107</v>
       </c>
       <c r="R36">
-        <v>0.1504879513</v>
+        <v>0.26898327963</v>
       </c>
       <c r="S36">
-        <v>1.025408676815788E-06</v>
+        <v>1.929215343357215E-06</v>
       </c>
       <c r="T36">
-        <v>1.025408676815788E-06</v>
+        <v>1.929215343357216E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.098855666666667</v>
+        <v>0.498699</v>
       </c>
       <c r="H37">
-        <v>6.296567</v>
+        <v>1.496097</v>
       </c>
       <c r="I37">
-        <v>0.006607909291616375</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="J37">
-        <v>0.006607909291616374</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.9482816666666668</v>
+        <v>0.3938476666666667</v>
       </c>
       <c r="N37">
-        <v>2.844845</v>
+        <v>1.181543</v>
       </c>
       <c r="O37">
-        <v>0.01847113674393851</v>
+        <v>0.008045518751266535</v>
       </c>
       <c r="P37">
-        <v>0.01847113674393851</v>
+        <v>0.008045518751266535</v>
       </c>
       <c r="Q37">
-        <v>1.990306349679445</v>
+        <v>0.196411437519</v>
       </c>
       <c r="R37">
-        <v>17.912757147115</v>
+        <v>1.767702937671</v>
       </c>
       <c r="S37">
-        <v>0.0001220555961169879</v>
+        <v>1.267840750006293E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001220555961169879</v>
+        <v>1.267840750006293E-05</v>
       </c>
     </row>
   </sheetData>
